--- a/doc/errors/errors.xlsx
+++ b/doc/errors/errors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="136">
   <si>
     <t>Error</t>
   </si>
@@ -303,9 +303,6 @@
     <t>ERR404</t>
   </si>
   <si>
-    <t>Username which does not exist/ wrong password</t>
-  </si>
-  <si>
     <t>Operation requested is not supported</t>
   </si>
   <si>
@@ -421,6 +418,12 @@
   </si>
   <si>
     <t>General error during the export of a report in .xml format (filesystem error)</t>
+  </si>
+  <si>
+    <t>errorCode</t>
+  </si>
+  <si>
+    <t>Username which does not exist/ wrong password / not authorized</t>
   </si>
 </sst>
 </file>
@@ -535,13 +538,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:D7" totalsRowShown="0">
-  <autoFilter ref="A1:D7"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table24" displayName="Table24" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Error"/>
     <tableColumn id="3" name="GetDatasetList"/>
     <tableColumn id="4" name="SendMessage"/>
     <tableColumn id="5" name="Additional notes"/>
+    <tableColumn id="2" name="errorCode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -836,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,12 +859,12 @@
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -904,7 +908,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -915,10 +919,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -959,7 +963,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -981,7 +985,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
@@ -992,10 +996,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
         <v>96</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
       </c>
       <c r="C17" t="s">
         <v>91</v>
@@ -1003,10 +1007,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s">
         <v>107</v>
-      </c>
-      <c r="B18" t="s">
-        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>91</v>
@@ -1017,7 +1021,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -1047,10 +1051,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
         <v>91</v>
@@ -1058,10 +1062,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>91</v>
@@ -1072,7 +1076,7 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
         <v>91</v>
@@ -1080,10 +1084,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>91</v>
@@ -1091,10 +1095,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>91</v>
@@ -1102,10 +1106,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" t="s">
         <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
@@ -1113,10 +1117,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
         <v>91</v>
@@ -1124,10 +1128,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
         <v>111</v>
-      </c>
-      <c r="B30" t="s">
-        <v>112</v>
       </c>
       <c r="C30" t="s">
         <v>91</v>
@@ -1135,10 +1139,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
         <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
       </c>
       <c r="C31" t="s">
         <v>91</v>
@@ -1256,7 +1260,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
         <v>68</v>
@@ -1341,10 +1345,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
         <v>115</v>
-      </c>
-      <c r="B55" t="s">
-        <v>116</v>
       </c>
       <c r="C55" t="s">
         <v>91</v>
@@ -1352,10 +1356,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
         <v>91</v>
@@ -1363,10 +1367,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
         <v>91</v>
@@ -1386,7 +1390,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1420,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1477,10 +1481,10 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
         <v>109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1493,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1511,7 @@
     <col min="4" max="4" width="76.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1520,8 +1524,11 @@
       <c r="D1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1531,8 +1538,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1542,8 +1552,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1551,13 +1564,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1570,8 +1586,11 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1584,8 +1603,11 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1593,10 +1615,13 @@
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/doc/errors/errors.xlsx
+++ b/doc/errors/errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20010" windowHeight="6240" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20010" windowHeight="6240"/>
   </bookViews>
   <sheets>
     <sheet name="Error codes" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
   <si>
     <t>Error</t>
   </si>
@@ -424,6 +424,15 @@
   </si>
   <si>
     <t>Username which does not exist/ wrong password / not authorized</t>
+  </si>
+  <si>
+    <t>The downloaded dataset contains data which do not follow the formulas defined in the excel. This can be due to old versions of datasets that were created with different formulas.</t>
+  </si>
+  <si>
+    <t>General runtime error, see message error stack for more information</t>
+  </si>
+  <si>
+    <t>XERRX</t>
   </si>
 </sst>
 </file>
@@ -840,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,6 +937,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
@@ -1046,6 +1066,17 @@
         <v>49</v>
       </c>
       <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1499,7 +1530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>

--- a/doc/errors/errors.xlsx
+++ b/doc/errors/errors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="145">
   <si>
     <t>Error</t>
   </si>
@@ -433,6 +433,24 @@
   </si>
   <si>
     <t>XERRX</t>
+  </si>
+  <si>
+    <t>Axx</t>
+  </si>
+  <si>
+    <t>input/output errors</t>
+  </si>
+  <si>
+    <t>The file cannot be written into the selected folder. Either it does not exist or it is blocked by another program.</t>
+  </si>
+  <si>
+    <t>ERRA00</t>
+  </si>
+  <si>
+    <t>WARN001</t>
+  </si>
+  <si>
+    <t>The 'check report' validation of a report is not passed (validation fired from the check report in the toolbar)</t>
   </si>
 </sst>
 </file>
@@ -524,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C57" totalsRowShown="0">
-  <autoFilter ref="A1:C57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C60" totalsRowShown="0">
+  <autoFilter ref="A1:C60"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Error"/>
     <tableColumn id="2" name="Error code"/>
@@ -536,8 +554,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Error code group"/>
     <tableColumn id="2" name="Error type"/>
@@ -847,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,6 +1425,28 @@
         <v>91</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1418,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,6 +1556,14 @@
       </c>
       <c r="B11" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
